--- a/7rMartSuperMarket/src/test/resources/testdata/Testdata.xlsx
+++ b/7rMartSuperMarket/src/test/resources/testdata/Testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 11\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0920F5FA-4DD6-48AE-ACAA-BDF7EF84A579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F170D57-9180-436E-9F8C-8F4D1D730C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{30D5D246-B5C8-484C-A466-3858B5F093B9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{30D5D246-B5C8-484C-A466-3858B5F093B9}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>UserName</t>
   </si>
@@ -54,19 +54,55 @@
   </si>
   <si>
     <t>AAAAA</t>
+  </si>
+  <si>
+    <t>categoryText</t>
+  </si>
+  <si>
+    <t>New Category</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>Final One</t>
+  </si>
+  <si>
+    <t>manageNewsUrl</t>
+  </si>
+  <si>
+    <t>manageCategoryUrl</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/news/add</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-category</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Windows 11\\Pictures\\Screenshots\\ABC.png</t>
+  </si>
+  <si>
+    <t>filePath</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,8 +125,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,62 +489,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4C136A-76F8-4292-8AEA-A762B6A1F2E5}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B5DB4F-F2F5-40DD-8B9C-9F285ED24F81}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>